--- a/medicine/Pharmacie/Classe_ATC_C03/Classe_ATC_C03.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_C03/Classe_ATC_C03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C03, dénommée « Diurétiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C03, dénommée « Diurétiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C03AA Thiazidiques non associés
-C03AA01 Bendrofluméthiazide (en)
+          <t>C03AA Thiazidiques non associés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C03AA01 Bendrofluméthiazide (en)
 C03AA02 Hydrofluméthiazide (en)
 C03AA03 Hydrochlorothiazide
 C03AA04 Chlorothiazide (en)
@@ -524,9 +541,43 @@
 C03AA08 Méthyclothiazide (en)
 C03AA09 Cyclothiazide (en)
 C03AA13 Mébutizide (en)
-« QC03AA56 » Trichlorméthiazide en association
-C03AB Thiazidiques et potassium en association
-C03AB01 Bendrofluméthiazide et potassium
+« QC03AA56 » Trichlorméthiazide en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C03A Diurétiques low-ceiling, thiazidiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C03AB Thiazidiques et potassium en association</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C03AB01 Bendrofluméthiazide et potassium
 C03AB02 Hydrofluméthiazide et potassium
 C03AB03 Hydrochlorothiazide et potassium
 C03AB04 Bendrofluméthiazide et potassium
@@ -534,43 +585,116 @@
 C03AB06 Trichlorméthiazide et potassium
 C03AB07 Cyclopenthiazide et potassium
 C03AB08 Méthylclothiazide et potassium
-C03AB09 Cyclothiazide et potassium
-C03AH Thiazidiques en association avec psycholeptiques et/ou analgésiques
-C03AH01 Chlorothiazide en association
-C03AH02 Hydrofluméthiazide en association
-C03AX Thiazidiques en association avec d'autres substances
-C03AX01 Hydrochlorothiazide en association</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+C03AB09 Cyclothiazide et potassium</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C03A Diurétiques low-ceiling, thiazidiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C03AH Thiazidiques en association avec psycholeptiques et/ou analgésiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C03AH01 Chlorothiazide en association
+C03AH02 Hydrofluméthiazide en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C03A Diurétiques low-ceiling, thiazidiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C03AX Thiazidiques en association avec d'autres substances</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C03AX01 Hydrochlorothiazide en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>C03B Diurétiques low-ceiling, thiazidiques exclus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C03BA Sulfamides non associés
-C03BA02 Quinéthazone (en)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C03BA Sulfamides non associés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C03BA02 Quinéthazone (en)
 C03BA03 Clopamide (en)
 C03BA04 Chlortalidone
 C03BA05 Méfruside (en)
@@ -581,133 +705,488 @@
 C03BA11 Indapamide
 C03BA12 Clorexolone (en)
 C03BA13 Fenquizone (en)
-C03BA82 Clorexolone en association avec des psycholeptiques
-C03BB Sulfamides et potassium en association
-C03BB02 Quinéthazone et potassium
+C03BA82 Clorexolone en association avec des psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C03B Diurétiques low-ceiling, thiazidiques exclus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C03BB Sulfamides et potassium en association</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C03BB02 Quinéthazone et potassium
 C03BB03 Clopamide et potassium
 C03BB04 Chlortalidone et potassium
 C03BB05 Méfruside et potassium
-C03BB07 Clofénamide et potassium
-C03BC Diurétiques mercuriels
-C03BC01 Mersalyl
-C03BD Dérivés xanthiques
-C03BD01 Théobromine
-C03BK Sulfamides en association avec d'autres substances
-Classe vide.
-C03BX Autres diurétiques low-ceiling
-C03BX03 Ciclétanine (en)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+C03BB07 Clofénamide et potassium</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C03B Diurétiques low-ceiling, thiazidiques exclus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C03BC Diurétiques mercuriels</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C03BC01 Mersalyl</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C03B Diurétiques low-ceiling, thiazidiques exclus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C03BD Dérivés xanthiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C03BD01 Théobromine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C03B Diurétiques low-ceiling, thiazidiques exclus</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C03BK Sulfamides en association avec d'autres substances</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C03B Diurétiques low-ceiling, thiazidiques exclus</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>C03BX Autres diurétiques low-ceiling</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>C03BX03 Ciclétanine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>C03C Diurétiques de l'anse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C03CA Sulfamides non associés
-C03CA01 Furosémide
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C03CA Sulfamides non associés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C03CA01 Furosémide
 C03CA02 Bumétanide
 C03CA03 Pirétanide (en)
-C03CA04 Torasémide
-C03CB Sulfamides et potassium en association
-C03CB01 Furosémide et potassium
-C03CB02 Bumétanide et potassium
-C03CC Dérivés de l'acide aryloxyacétique
-C03CC01 Étacrynique acide (en)
-C03CC02 Tiénilique acide (en)
-C03CD Dérivés de la pyrazolone
-C03CD01 Muzolimine (en)
-C03CX Autres diurétiques de l'anse
-C03CX01 Étozoline (en)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+C03CA04 Torasémide</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C03C Diurétiques de l'anse</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C03CB Sulfamides et potassium en association</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>C03CB01 Furosémide et potassium
+C03CB02 Bumétanide et potassium</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C03C Diurétiques de l'anse</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C03CC Dérivés de l'acide aryloxyacétique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>C03CC01 Étacrynique acide (en)
+C03CC02 Tiénilique acide (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C03C Diurétiques de l'anse</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C03CD Dérivés de la pyrazolone</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C03CD01 Muzolimine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C03C Diurétiques de l'anse</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>C03CX Autres diurétiques de l'anse</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>C03CX01 Étozoline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>C03D Diurétiques épargneurs potassiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>C03DA Antagonistes de l'aldostérone
-C03DA01 Spironolactone
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>C03DA Antagonistes de l'aldostérone</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>C03DA01 Spironolactone
 C03DA02 Canrénoate de potassium
 C03DA03 Canrénone (en)
-C03DA04 Éplérénone
-C03DB Autres diurétiques épargneurs potassiques
-C03DB01 Amiloride
+C03DA04 Éplérénone</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C03D Diurétiques épargneurs potassiques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C03DB Autres diurétiques épargneurs potassiques</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>C03DB01 Amiloride
 C03DB02 Triamtérène</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>C03E Diurétiques et épargneurs potassiques en association</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C03EA Diurétiques low-ceiling et épargneurs potassiques
-C03EA01 Hydrochlorothiazide et épargneurs potassiques
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>C03EA Diurétiques low-ceiling et épargneurs potassiques</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C03EA01 Hydrochlorothiazide et épargneurs potassiques
 C03EA02 Trichlorométhiazide et épargneurs potassiques
 C03EA03 Épitizide et épargneurs potassiques
 C03EA04 Altizide et épargneurs potassiques
@@ -717,40 +1196,80 @@
 C03EA12 Métolazone et épargneurs potassiques
 C03EA13 Bendrofluméthiazide et épargneurs potassiques
 C03EA14 Butizide et épargneurs potassiques
-C03EB Diurétiques de l'anse et épargneurs potassiques
-C03EB01 Furosémide et épargneurs potassiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C03E Diurétiques et épargneurs potassiques en association</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>C03EB Diurétiques de l'anse et épargneurs potassiques</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>C03EB01 Furosémide et épargneurs potassiques
 C03EB02 Bumétanide et épargneurs potassiques</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>C03X Autres diurétiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>C03XA Antagonistes de la vasopressine
-C03XA01 Tolvaptan
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>C03XA Antagonistes de la vasopressine</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>C03XA01 Tolvaptan
 C03XA02 Conivaptan (en)</t>
         </is>
       </c>
